--- a/courses_schedule.xlsx
+++ b/courses_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahleen/Documents/GEOG481/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B1B78-5478-BC4F-ACE3-F6CEE372C762}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B94A7F-7897-8240-97C5-458E08844D81}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{12F491FB-C1D5-F34D-9D1F-CEF8D72C9369}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="113">
   <si>
     <t>CHEM 120</t>
   </si>
@@ -292,12 +292,6 @@
     <t>RCH 305</t>
   </si>
   <si>
-    <t xml:space="preserve">CLASS HOUR </t>
-  </si>
-  <si>
-    <t>NUM_STUDENTS</t>
-  </si>
-  <si>
     <t>UNIQUE</t>
   </si>
   <si>
@@ -371,6 +365,9 @@
   </si>
   <si>
     <t>OPT</t>
+  </si>
+  <si>
+    <t>Student_HEAD_COUNT</t>
   </si>
 </sst>
 </file>
@@ -1740,10 +1737,13 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F29" sqref="F29:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1753,25 +1753,16 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
       </c>
       <c r="H1" t="s">
         <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1781,14 +1772,16 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>490</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
       <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I2">
         <v>789</v>
@@ -1806,7 +1799,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I3">
         <v>818</v>
@@ -1824,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <v>757</v>
@@ -1842,7 +1835,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>403</v>
@@ -1860,7 +1853,7 @@
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6">
         <v>433</v>
@@ -1873,14 +1866,16 @@
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>151</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
       <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7">
         <v>587</v>
@@ -1898,7 +1893,7 @@
         <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <v>193</v>
@@ -1916,7 +1911,7 @@
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I9">
         <v>1455</v>
@@ -1952,7 +1947,7 @@
         <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I11">
         <v>1121</v>
@@ -1965,7 +1960,9 @@
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>750</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
       <c r="G12" s="1" t="s">
@@ -1990,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I13">
         <v>78</v>
@@ -2008,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I14">
         <v>1909</v>
@@ -2026,7 +2023,7 @@
         <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I15">
         <v>226</v>
@@ -2044,7 +2041,7 @@
         <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I16">
         <v>38</v>
@@ -2057,7 +2054,9 @@
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>327</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="9"/>
       <c r="G17" s="5" t="s">
@@ -2082,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>849</v>
@@ -2100,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I19">
         <v>912</v>
@@ -2118,7 +2117,7 @@
         <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I20">
         <v>122</v>
@@ -2136,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I21">
         <v>265</v>
@@ -2149,7 +2148,9 @@
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>749</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="9"/>
       <c r="G22" s="2" t="s">
@@ -2174,7 +2175,7 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I23">
         <v>499</v>
@@ -2192,7 +2193,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I24">
         <v>1934</v>
@@ -2210,7 +2211,7 @@
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I25">
         <v>126</v>
@@ -2228,7 +2229,7 @@
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I26">
         <v>550</v>
@@ -2241,14 +2242,16 @@
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>290</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="9"/>
       <c r="G27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I27">
         <v>25</v>
@@ -2266,7 +2269,7 @@
         <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I28">
         <v>19</v>
@@ -2284,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I29">
         <v>103</v>
@@ -2299,10 +2302,10 @@
       <c r="D30" s="3"/>
       <c r="E30" s="9"/>
       <c r="G30" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I30">
         <v>192</v>
@@ -2320,7 +2323,7 @@
         <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I31">
         <v>88</v>
@@ -2333,7 +2336,9 @@
       <c r="B32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>177</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="G32" s="4" t="s">
@@ -2376,7 +2381,7 @@
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I34">
         <v>206</v>
@@ -2394,7 +2399,7 @@
         <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I35">
         <v>57</v>
@@ -2412,7 +2417,7 @@
         <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I36">
         <v>34</v>
@@ -2425,14 +2430,16 @@
       <c r="B37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="4">
+        <v>193</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
       <c r="G37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I37">
         <v>329</v>
@@ -2450,7 +2457,7 @@
         <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I38">
         <v>143</v>
@@ -2468,7 +2475,7 @@
         <v>53</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I39">
         <v>417</v>
@@ -2486,7 +2493,7 @@
         <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I40">
         <v>155</v>
@@ -2495,7 +2502,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2504,7 +2511,7 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I41">
         <v>52</v>
@@ -2517,14 +2524,16 @@
       <c r="B42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="4">
+        <v>148</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="10"/>
       <c r="G42" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I42">
         <v>291</v>
@@ -2560,7 +2569,7 @@
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I44">
         <v>999</v>
@@ -2578,7 +2587,7 @@
         <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I45">
         <v>596</v>
@@ -2596,7 +2605,7 @@
         <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I46">
         <v>293</v>
@@ -2609,7 +2618,9 @@
       <c r="B47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5">
+        <v>786</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="11"/>
       <c r="G47" s="2" t="s">
@@ -2688,7 +2699,7 @@
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I51">
         <v>1560</v>
@@ -2701,14 +2712,16 @@
       <c r="B52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5">
+        <v>169</v>
+      </c>
       <c r="D52" s="5"/>
       <c r="E52" s="11"/>
       <c r="G52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I52">
         <v>764</v>
@@ -2762,7 +2775,7 @@
         <v>58</v>
       </c>
       <c r="H55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I55">
         <v>247</v>
@@ -2780,7 +2793,7 @@
         <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I56">
         <v>175</v>
@@ -2793,14 +2806,16 @@
       <c r="B57" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5">
+        <v>856</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="11"/>
       <c r="G57" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I57">
         <v>139</v>
@@ -2867,7 +2882,9 @@
       <c r="B62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62" s="6">
+        <v>309</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="E62" s="12"/>
     </row>
@@ -2914,7 +2931,9 @@
       <c r="B67" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="6"/>
+      <c r="C67" s="6">
+        <v>90</v>
+      </c>
       <c r="D67" s="6"/>
       <c r="E67" s="12"/>
     </row>
@@ -2961,7 +2980,9 @@
       <c r="B72" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="6"/>
+      <c r="C72" s="6">
+        <v>293</v>
+      </c>
       <c r="D72" s="6"/>
       <c r="E72" s="12"/>
     </row>
@@ -3008,12 +3029,10 @@
       <c r="B77" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="1">
-        <v>301</v>
-      </c>
+      <c r="C77" s="1">
+        <v>873</v>
+      </c>
+      <c r="D77" s="1"/>
       <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3021,12 +3040,8 @@
       <c r="B78" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="1">
-        <v>103</v>
-      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3034,12 +3049,8 @@
       <c r="B79" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2086</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3056,12 +3067,8 @@
       <c r="B81" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2402</v>
-      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3071,12 +3078,10 @@
       <c r="B82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" s="1">
-        <v>305</v>
-      </c>
+      <c r="C82" s="1">
+        <v>1085</v>
+      </c>
+      <c r="D82" s="1"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3102,12 +3107,8 @@
       <c r="B85" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" s="1">
-        <v>1085</v>
-      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,7 +3127,9 @@
       <c r="B87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="1">
+        <v>508</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="13"/>
     </row>

--- a/courses_schedule.xlsx
+++ b/courses_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahleen/Documents/GEOG481/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B94A7F-7897-8240-97C5-458E08844D81}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B938F-A2B9-FB42-85B9-A6E537B494C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{12F491FB-C1D5-F34D-9D1F-CEF8D72C9369}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$G$1:$G$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$E$1:$E$59</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="115">
   <si>
     <t>CHEM 120</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>Student_HEAD_COUNT</t>
+  </si>
+  <si>
+    <t>S(t)/N</t>
+  </si>
+  <si>
+    <t>0.5% of Cohort</t>
   </si>
 </sst>
 </file>
@@ -1734,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D7C7E3-A46F-A84D-8758-8EBBEE8204FB}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F84"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1755,14 +1761,20 @@
       <c r="C1" t="s">
         <v>112</v>
       </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
       <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1775,16 +1787,22 @@
       <c r="C2" s="2">
         <v>490</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2">
+        <f>C2/$C$92</f>
+        <v>5.943716642406599E-2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
         <v>88</v>
       </c>
+      <c r="G2">
+        <v>789</v>
+      </c>
       <c r="I2">
-        <v>789</v>
+        <f>0.005*C2</f>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1793,16 +1811,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">C3/$C$92</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
+      <c r="G3">
+        <v>818</v>
+      </c>
       <c r="I3">
-        <v>818</v>
+        <f t="shared" ref="I3:I66" si="1">0.005*C3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1811,16 +1835,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="6" t="s">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" t="s">
         <v>90</v>
       </c>
+      <c r="G4">
+        <v>757</v>
+      </c>
       <c r="I4">
-        <v>757</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1829,16 +1859,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="5" t="s">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
         <v>92</v>
       </c>
+      <c r="G5">
+        <v>403</v>
+      </c>
       <c r="I5">
-        <v>403</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1847,16 +1883,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="5" t="s">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" t="s">
         <v>93</v>
       </c>
+      <c r="G6">
+        <v>433</v>
+      </c>
       <c r="I6">
-        <v>433</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1869,16 +1911,22 @@
       <c r="C7" s="2">
         <v>151</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="5" t="s">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.83163512857836E-2</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" t="s">
         <v>94</v>
       </c>
+      <c r="G7">
+        <v>587</v>
+      </c>
       <c r="I7">
-        <v>587</v>
+        <f t="shared" si="1"/>
+        <v>0.755</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1887,16 +1935,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="5" t="s">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" t="s">
         <v>95</v>
       </c>
+      <c r="G8">
+        <v>193</v>
+      </c>
       <c r="I8">
-        <v>193</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1905,16 +1959,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="3" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F9" t="s">
         <v>96</v>
       </c>
+      <c r="G9">
+        <v>1455</v>
+      </c>
       <c r="I9">
-        <v>1455</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1923,16 +1983,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="1" t="s">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F10" t="s">
         <v>79</v>
       </c>
+      <c r="G10">
+        <v>154</v>
+      </c>
       <c r="I10">
-        <v>154</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1941,16 +2007,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="1" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F11" t="s">
         <v>97</v>
       </c>
+      <c r="G11">
+        <v>1121</v>
+      </c>
       <c r="I11">
-        <v>1121</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1963,16 +2035,22 @@
       <c r="C12" s="2">
         <v>750</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="1" t="s">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9.0975254730713245E-2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F12" t="s">
         <v>81</v>
       </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
       <c r="I12">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>3.75</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1981,16 +2059,22 @@
         <v>7</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="2" t="s">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F13" t="s">
         <v>90</v>
       </c>
+      <c r="G13">
+        <v>78</v>
+      </c>
       <c r="I13">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1999,16 +2083,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>98</v>
       </c>
+      <c r="G14">
+        <v>1909</v>
+      </c>
       <c r="I14">
-        <v>1909</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2017,16 +2107,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="G15" s="1" t="s">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
+      <c r="F15" t="s">
         <v>99</v>
       </c>
+      <c r="G15">
+        <v>226</v>
+      </c>
       <c r="I15">
-        <v>226</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2035,16 +2131,22 @@
         <v>10</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="G16" s="5" t="s">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H16" t="s">
+      <c r="F16" t="s">
         <v>92</v>
       </c>
+      <c r="G16">
+        <v>38</v>
+      </c>
       <c r="I16">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2057,16 +2159,22 @@
       <c r="C17" s="3">
         <v>327</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="5" t="s">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3.9665211062590973E-2</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F17" t="s">
         <v>85</v>
       </c>
+      <c r="G17">
+        <v>224</v>
+      </c>
       <c r="I17">
-        <v>224</v>
+        <f t="shared" si="1"/>
+        <v>1.635</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2075,16 +2183,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="3" t="s">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F18" t="s">
         <v>100</v>
       </c>
+      <c r="G18">
+        <v>849</v>
+      </c>
       <c r="I18">
-        <v>849</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2093,16 +2207,22 @@
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="3" t="s">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
+      <c r="F19" t="s">
         <v>101</v>
       </c>
+      <c r="G19">
+        <v>912</v>
+      </c>
       <c r="I19">
-        <v>912</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2111,16 +2231,22 @@
         <v>9</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="1" t="s">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H20" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
+      <c r="G20">
+        <v>122</v>
+      </c>
       <c r="I20">
-        <v>122</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2129,16 +2255,22 @@
         <v>13</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
-      <c r="G21" s="2" t="s">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
+      <c r="F21" t="s">
         <v>98</v>
       </c>
+      <c r="G21">
+        <v>265</v>
+      </c>
       <c r="I21">
-        <v>265</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2151,16 +2283,22 @@
       <c r="C22" s="3">
         <v>749</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
-      <c r="G22" s="2" t="s">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>9.08539543910723E-2</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H22" t="s">
+      <c r="F22" t="s">
         <v>85</v>
       </c>
+      <c r="G22">
+        <v>125</v>
+      </c>
       <c r="I22">
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>3.7450000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2169,16 +2307,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
-      <c r="G23" s="1" t="s">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H23" t="s">
+      <c r="F23" t="s">
         <v>97</v>
       </c>
+      <c r="G23">
+        <v>499</v>
+      </c>
       <c r="I23">
-        <v>499</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2187,16 +2331,22 @@
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="9"/>
-      <c r="G24" s="3" t="s">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="s">
+      <c r="F24" t="s">
         <v>103</v>
       </c>
+      <c r="G24">
+        <v>1934</v>
+      </c>
       <c r="I24">
-        <v>1934</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2205,16 +2355,22 @@
         <v>20</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="G25" s="4" t="s">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H25" t="s">
+      <c r="F25" t="s">
         <v>104</v>
       </c>
+      <c r="G25">
+        <v>126</v>
+      </c>
       <c r="I25">
-        <v>126</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2223,16 +2379,22 @@
         <v>21</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="3" t="s">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H26" t="s">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
+      <c r="G26">
+        <v>550</v>
+      </c>
       <c r="I26">
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2245,16 +2407,22 @@
       <c r="C27" s="3">
         <v>290</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="2" t="s">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>3.5177098495875789E-2</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H27" t="s">
+      <c r="F27" t="s">
         <v>105</v>
       </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
       <c r="I27">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>1.45</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2263,16 +2431,22 @@
         <v>18</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="1" t="s">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H28" t="s">
+      <c r="F28" t="s">
         <v>93</v>
       </c>
+      <c r="G28">
+        <v>19</v>
+      </c>
       <c r="I28">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2281,16 +2455,22 @@
         <v>19</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="2" t="s">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H29" t="s">
+      <c r="F29" t="s">
         <v>88</v>
       </c>
+      <c r="G29">
+        <v>103</v>
+      </c>
       <c r="I29">
-        <v>103</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2299,16 +2479,22 @@
         <v>12</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="4" t="s">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H30" t="s">
+      <c r="F30" t="s">
         <v>103</v>
       </c>
+      <c r="G30">
+        <v>192</v>
+      </c>
       <c r="I30">
-        <v>192</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2317,16 +2503,22 @@
         <v>55</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="1" t="s">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H31" t="s">
+      <c r="F31" t="s">
         <v>106</v>
       </c>
+      <c r="G31">
+        <v>88</v>
+      </c>
       <c r="I31">
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2339,16 +2531,22 @@
       <c r="C32" s="4">
         <v>177</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
-      <c r="G32" s="4" t="s">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.1470160116448325E-2</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H32" t="s">
+      <c r="F32" t="s">
         <v>79</v>
       </c>
+      <c r="G32">
+        <v>245</v>
+      </c>
       <c r="I32">
-        <v>245</v>
+        <f t="shared" si="1"/>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2357,16 +2555,22 @@
         <v>23</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="10"/>
-      <c r="G33" s="4" t="s">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H33" t="s">
+      <c r="F33" t="s">
         <v>79</v>
       </c>
+      <c r="G33">
+        <v>289</v>
+      </c>
       <c r="I33">
-        <v>289</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2375,16 +2579,22 @@
         <v>24</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="10"/>
-      <c r="G34" s="4" t="s">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H34" t="s">
+      <c r="F34" t="s">
         <v>104</v>
       </c>
+      <c r="G34">
+        <v>206</v>
+      </c>
       <c r="I34">
-        <v>206</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2393,16 +2603,22 @@
         <v>27</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="10"/>
-      <c r="G35" s="5" t="s">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
+      <c r="F35" t="s">
         <v>95</v>
       </c>
+      <c r="G35">
+        <v>57</v>
+      </c>
       <c r="I35">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2411,16 +2627,22 @@
         <v>19</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="10"/>
-      <c r="G36" s="4" t="s">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H36" t="s">
+      <c r="F36" t="s">
         <v>108</v>
       </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
       <c r="I36">
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2433,16 +2655,22 @@
       <c r="C37" s="4">
         <v>193</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
-      <c r="G37" s="4" t="s">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>2.3410965550703541E-2</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H37" t="s">
+      <c r="F37" t="s">
         <v>98</v>
       </c>
+      <c r="G37">
+        <v>329</v>
+      </c>
       <c r="I37">
-        <v>329</v>
+        <f t="shared" si="1"/>
+        <v>0.96499999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2451,16 +2679,22 @@
         <v>29</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="10"/>
-      <c r="G38" s="4" t="s">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H38" t="s">
+      <c r="F38" t="s">
         <v>89</v>
       </c>
+      <c r="G38">
+        <v>143</v>
+      </c>
       <c r="I38">
-        <v>143</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2469,16 +2703,22 @@
         <v>13</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="10"/>
-      <c r="G39" s="6" t="s">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H39" t="s">
+      <c r="F39" t="s">
         <v>109</v>
       </c>
+      <c r="G39">
+        <v>417</v>
+      </c>
       <c r="I39">
-        <v>417</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2487,16 +2727,22 @@
         <v>30</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="10"/>
-      <c r="G40" s="4" t="s">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H40" t="s">
+      <c r="F40" t="s">
         <v>103</v>
       </c>
+      <c r="G40">
+        <v>155</v>
+      </c>
       <c r="I40">
-        <v>155</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2505,16 +2751,22 @@
         <v>107</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="10"/>
-      <c r="G41" s="4" t="s">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H41" t="s">
+      <c r="F41" t="s">
         <v>108</v>
       </c>
+      <c r="G41">
+        <v>52</v>
+      </c>
       <c r="I41">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2527,16 +2779,22 @@
       <c r="C42" s="4">
         <v>148</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="10"/>
-      <c r="G42" s="6" t="s">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1.7952450266860747E-2</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H42" t="s">
+      <c r="F42" t="s">
         <v>90</v>
       </c>
+      <c r="G42">
+        <v>291</v>
+      </c>
       <c r="I42">
-        <v>291</v>
+        <f t="shared" si="1"/>
+        <v>0.74</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2545,16 +2803,22 @@
         <v>33</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="10"/>
-      <c r="G43" s="1" t="s">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H43" t="s">
+      <c r="F43" t="s">
         <v>79</v>
       </c>
+      <c r="G43">
+        <v>1195</v>
+      </c>
       <c r="I43">
-        <v>1195</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2563,16 +2827,22 @@
         <v>34</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="10"/>
-      <c r="G44" s="1" t="s">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H44" t="s">
+      <c r="F44" t="s">
         <v>99</v>
       </c>
+      <c r="G44">
+        <v>999</v>
+      </c>
       <c r="I44">
-        <v>999</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2581,16 +2851,22 @@
         <v>23</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="10"/>
-      <c r="G45" s="1" t="s">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H45" t="s">
+      <c r="F45" t="s">
         <v>97</v>
       </c>
+      <c r="G45">
+        <v>596</v>
+      </c>
       <c r="I45">
-        <v>596</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2599,16 +2875,22 @@
         <v>15</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="10"/>
-      <c r="G46" s="6" t="s">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H46" t="s">
+      <c r="F46" t="s">
         <v>90</v>
       </c>
+      <c r="G46">
+        <v>293</v>
+      </c>
       <c r="I46">
-        <v>293</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2621,16 +2903,22 @@
       <c r="C47" s="5">
         <v>786</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="11"/>
-      <c r="G47" s="2" t="s">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>9.5342066957787477E-2</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H47" t="s">
+      <c r="F47" t="s">
         <v>81</v>
       </c>
+      <c r="G47">
+        <v>964</v>
+      </c>
       <c r="I47">
-        <v>964</v>
+        <f t="shared" si="1"/>
+        <v>3.93</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2639,16 +2927,22 @@
         <v>13</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="11"/>
-      <c r="G48" s="3" t="s">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H48" t="s">
+      <c r="F48" t="s">
         <v>85</v>
       </c>
+      <c r="G48">
+        <v>107</v>
+      </c>
       <c r="I48">
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2657,16 +2951,22 @@
         <v>43</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="11"/>
-      <c r="G49" s="3" t="s">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H49" t="s">
+      <c r="F49" t="s">
         <v>85</v>
       </c>
+      <c r="G49">
+        <v>1500</v>
+      </c>
       <c r="I49">
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2675,16 +2975,22 @@
         <v>44</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="11"/>
-      <c r="G50" s="2" t="s">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H50" t="s">
+      <c r="F50" t="s">
         <v>85</v>
       </c>
+      <c r="G50">
+        <v>179</v>
+      </c>
       <c r="I50">
-        <v>179</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2693,16 +2999,22 @@
         <v>45</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="11"/>
-      <c r="G51" s="2" t="s">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H51" t="s">
+      <c r="F51" t="s">
         <v>110</v>
       </c>
+      <c r="G51">
+        <v>1560</v>
+      </c>
       <c r="I51">
-        <v>1560</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2715,16 +3027,22 @@
       <c r="C52" s="5">
         <v>169</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="11"/>
-      <c r="G52" s="2" t="s">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>2.0499757399320719E-2</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H52" t="s">
+      <c r="F52" t="s">
         <v>110</v>
       </c>
+      <c r="G52">
+        <v>764</v>
+      </c>
       <c r="I52">
-        <v>764</v>
+        <f t="shared" si="1"/>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2733,16 +3051,22 @@
         <v>43</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="11"/>
-      <c r="G53" s="2" t="s">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H53" t="s">
+      <c r="F53" t="s">
         <v>79</v>
       </c>
+      <c r="G53">
+        <v>543</v>
+      </c>
       <c r="I53">
-        <v>543</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2751,16 +3075,22 @@
         <v>44</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="11"/>
-      <c r="G54" s="6" t="s">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H54" t="s">
+      <c r="F54" t="s">
         <v>82</v>
       </c>
+      <c r="G54">
+        <v>1173</v>
+      </c>
       <c r="I54">
-        <v>1173</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2769,16 +3099,22 @@
         <v>47</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="11"/>
-      <c r="G55" s="6" t="s">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H55" t="s">
+      <c r="F55" t="s">
         <v>90</v>
       </c>
+      <c r="G55">
+        <v>247</v>
+      </c>
       <c r="I55">
-        <v>247</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2787,16 +3123,22 @@
         <v>13</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="11"/>
-      <c r="G56" s="6" t="s">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H56" t="s">
+      <c r="F56" t="s">
         <v>111</v>
       </c>
+      <c r="G56">
+        <v>175</v>
+      </c>
       <c r="I56">
-        <v>175</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2809,16 +3151,22 @@
       <c r="C57" s="5">
         <v>856</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="11"/>
-      <c r="G57" s="6" t="s">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.10383309073265405</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H57" t="s">
+      <c r="F57" t="s">
         <v>96</v>
       </c>
+      <c r="G57">
+        <v>139</v>
+      </c>
       <c r="I57">
-        <v>139</v>
+        <f t="shared" si="1"/>
+        <v>4.28</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2827,16 +3175,22 @@
         <v>49</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="11"/>
-      <c r="G58" s="5" t="s">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H58" t="s">
+      <c r="F58" t="s">
         <v>79</v>
       </c>
+      <c r="G58">
+        <v>64</v>
+      </c>
       <c r="I58">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2845,16 +3199,22 @@
         <v>13</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="11"/>
-      <c r="G59" s="3" t="s">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H59" t="s">
+      <c r="F59" t="s">
         <v>79</v>
       </c>
+      <c r="G59">
+        <v>590</v>
+      </c>
       <c r="I59">
-        <v>590</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2863,8 +3223,14 @@
         <v>50</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="11"/>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
@@ -2872,8 +3238,14 @@
         <v>28</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="11"/>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -2885,8 +3257,14 @@
       <c r="C62" s="6">
         <v>309</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="12"/>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>3.7481804949053857E-2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>1.5449999999999999</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2894,8 +3272,14 @@
         <v>54</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="12"/>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
@@ -2903,28 +3287,46 @@
         <v>55</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="12"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="12"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>57</v>
       </c>
@@ -2934,46 +3336,76 @@
       <c r="C67" s="6">
         <v>90</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="12"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f t="shared" ref="D67:D91" si="2">C67/$C$92</f>
+        <v>1.0917030567685589E-2</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I92" si="3">0.005*C67</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="12"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="12"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="12"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="12"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>61</v>
       </c>
@@ -2983,46 +3415,76 @@
       <c r="C72" s="6">
         <v>293</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="12"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>3.5540999514798645E-2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>1.4650000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="12"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="12"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="12"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="12"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>64</v>
       </c>
@@ -3032,46 +3494,76 @@
       <c r="C77" s="1">
         <v>873</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="13"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>0.10589519650655022</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>4.3650000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="13"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="13"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="13"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>67</v>
       </c>
@@ -3081,46 +3573,76 @@
       <c r="C82" s="1">
         <v>1085</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>0.13161086851043183</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>5.4249999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="13"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,49 +3652,85 @@
       <c r="C87" s="1">
         <v>508</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>6.1620572537603106E-2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="13"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="13"/>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <f>SUM(C2:C91)</f>
+        <v>8244</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G91" xr:uid="{EB06F48E-CAF8-4346-91FF-CF5797B92868}">
-    <sortState ref="G2:G91">
-      <sortCondition ref="G1:G91"/>
+  <autoFilter ref="E1:E91" xr:uid="{EB06F48E-CAF8-4346-91FF-CF5797B92868}">
+    <sortState ref="E2:E91">
+      <sortCondition ref="E1:E91"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
